--- a/estadoSemDano.xlsx
+++ b/estadoSemDano.xlsx
@@ -875,7 +875,7 @@
         <v>0.3213553757185001</v>
       </c>
       <c r="CF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
